--- a/biology/Écologie/Toundra_alpine_des_monts_Ogilvie_et_MacKenzie/Toundra_alpine_des_monts_Ogilvie_et_MacKenzie.xlsx
+++ b/biology/Écologie/Toundra_alpine_des_monts_Ogilvie_et_MacKenzie/Toundra_alpine_des_monts_Ogilvie_et_MacKenzie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La toundra alpine des monts Ogilvie et MacKenzie est une écorégion terrestre nord-américaine du type toundra du World Wildlife Fund[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La toundra alpine des monts Ogilvie et MacKenzie est une écorégion terrestre nord-américaine du type toundra du World Wildlife Fund.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Toundra alpine Ogilvie-MacKenzie recouvre les monts Ogilvie, Wernecke et Selwyn ainsi que les chaînes Backbone, Canyon et Mackenzie.  L'écorégion s'étend de l'extrême est de l'Alaska jusqu'à l'ouest des Territoires du Nord-Ouest[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Toundra alpine Ogilvie-MacKenzie recouvre les monts Ogilvie, Wernecke et Selwyn ainsi que les chaînes Backbone, Canyon et Mackenzie.  L'écorégion s'étend de l'extrême est de l'Alaska jusqu'à l'ouest des Territoires du Nord-Ouest.  
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La température estivale moyenne varie entre 9 °C et 9,5 °C.  La température hivernale moyenne varie entre −19,5 °C et −21,5 °C.  Le taux de précipitations annuel oscille entre 300 mm et 750 mm, le maximum étant dans les monts Selwyn[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La température estivale moyenne varie entre 9 °C et 9,5 °C.  La température hivernale moyenne varie entre −19,5 °C et −21,5 °C.  Le taux de précipitations annuel oscille entre 300 mm et 750 mm, le maximum étant dans les monts Selwyn.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Géomorphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les glaciers sont communs, notamment dans le sud et l'est de l'écorégion.  Les monts les plus élevés se trouvent dans le sud avec des altitudes qui approchent 3 000 m.  Au nord, les chaînes atteignent en moyenne des élévations entre 900 m et 1 350 m[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les glaciers sont communs, notamment dans le sud et l'est de l'écorégion.  Les monts les plus élevés se trouvent dans le sud avec des altitudes qui approchent 3 000 m.  Au nord, les chaînes atteignent en moyenne des élévations entre 900 m et 1 350 m.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Caractéristiques biologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les zones subalpines occupées de peuplements épars et discontinus d'épinettes blanches comportant à l'occasion du sapin subalpin et du pin tordu.  Les bouleaux, les saules et le Ledum decumbens sont également abondants.  Au nord, aux élévations faibles et modérées, le bouleau à papier peut former des communautés importantes.  En altitude, la végétation est dominée par le lichen, le Dryas hookeriana, les éricacées, le carex et l'eriophorum[1].  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les zones subalpines occupées de peuplements épars et discontinus d'épinettes blanches comportant à l'occasion du sapin subalpin et du pin tordu.  Les bouleaux, les saules et le Ledum decumbens sont également abondants.  Au nord, aux élévations faibles et modérées, le bouleau à papier peut former des communautés importantes.  En altitude, la végétation est dominée par le lichen, le Dryas hookeriana, les éricacées, le carex et l'eriophorum.  
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On estime que 95 % de l'écorégion est toujours intacte[1].  
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On estime que 95 % de l'écorégion est toujours intacte.  
 </t>
         </is>
       </c>
